--- a/data/output/FV2410_FV2404/UTILMD/55196.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55196.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="433">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="433">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1429,6 +1429,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U300" totalsRowShown="0">
+  <autoFilter ref="A1:U300"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,7 +1748,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16229,5 +16262,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55196.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55196.xlsx
@@ -2733,7 +2733,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5255,7 +5255,7 @@
         <v>404</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6421,7 +6421,7 @@
         <v>407</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6625,7 +6625,7 @@
         <v>408</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6849,7 +6849,7 @@
         <v>410</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7073,7 +7073,7 @@
         <v>411</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7343,7 +7343,7 @@
         <v>412</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7547,7 +7547,7 @@
         <v>414</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7947,7 +7947,7 @@
         <v>415</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8313,7 +8313,7 @@
         <v>416</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8529,7 +8529,7 @@
         <v>417</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8837,7 +8837,7 @@
         <v>418</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9757,7 +9757,7 @@
         <v>421</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10273,7 +10273,7 @@
         <v>423</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10669,7 +10669,7 @@
         <v>412</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11373,7 +11373,7 @@
         <v>424</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11477,7 +11477,7 @@
         <v>425</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11785,7 +11785,7 @@
         <v>426</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -12047,7 +12047,7 @@
         <v>426</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12309,7 +12309,7 @@
         <v>426</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12509,7 +12509,7 @@
         <v>426</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12709,7 +12709,7 @@
         <v>426</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12909,7 +12909,7 @@
         <v>426</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13213,7 +13213,7 @@
         <v>426</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -13471,7 +13471,7 @@
         <v>426</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13675,7 +13675,7 @@
         <v>424</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13779,7 +13779,7 @@
         <v>427</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14307,7 +14307,7 @@
         <v>426</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14669,7 +14669,7 @@
         <v>429</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15277,7 +15277,7 @@
         <v>430</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15477,7 +15477,7 @@
         <v>426</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -15819,7 +15819,7 @@
         <v>431</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -16347,7 +16347,7 @@
         <v>426</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16495,7 +16495,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -16713,7 +16713,7 @@
         <v>433</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17479,7 +17479,7 @@
         <v>426</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N298" s="2"/>
